--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业所有者权益.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4154.3097</v>
+        <v>24556.8638</v>
       </c>
       <c r="C2" t="n">
-        <v>1728.7531</v>
+        <v>3458.0363</v>
       </c>
       <c r="D2" t="n">
-        <v>29.9345</v>
+        <v>152.8858</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4709</v>
+        <v>70.3623</v>
       </c>
       <c r="F2" t="n">
-        <v>4233.15169</v>
+        <v>24872.5952</v>
       </c>
       <c r="G2" t="n">
-        <v>48.9075</v>
+        <v>162.8456</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2085</v>
+        <v>30.8143</v>
       </c>
       <c r="I2" t="n">
-        <v>1187.1062</v>
+        <v>938.5418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5543.425</v>
+        <v>29891.65394</v>
       </c>
       <c r="C3" t="n">
-        <v>1984.6344</v>
+        <v>4038.0427</v>
       </c>
       <c r="D3" t="n">
-        <v>33.5359</v>
+        <v>192.95916</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6781</v>
+        <v>85.74167</v>
       </c>
       <c r="F3" t="n">
-        <v>5633.78262</v>
+        <v>30264.78871</v>
       </c>
       <c r="G3" t="n">
-        <v>56.8217</v>
+        <v>180.17561</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7939</v>
+        <v>65.73938</v>
       </c>
       <c r="I3" t="n">
-        <v>1183.8126</v>
+        <v>1052.88797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7289.8049</v>
+        <v>35769.42256</v>
       </c>
       <c r="C4" t="n">
-        <v>2318.4063</v>
+        <v>4643.16064</v>
       </c>
       <c r="D4" t="n">
-        <v>42.9647</v>
+        <v>182.60883</v>
       </c>
       <c r="E4" t="n">
-        <v>2.6828</v>
+        <v>101.80525</v>
       </c>
       <c r="F4" t="n">
-        <v>7404.4267</v>
+        <v>36123.45204</v>
       </c>
       <c r="G4" t="n">
-        <v>71.6571</v>
+        <v>171.42065</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7735</v>
+        <v>40.28096</v>
       </c>
       <c r="I4" t="n">
-        <v>1334.282</v>
+        <v>1114.55154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8426.576300000001</v>
+        <v>47466.5115</v>
       </c>
       <c r="C5" t="n">
-        <v>2367.8872</v>
+        <v>5230.46853</v>
       </c>
       <c r="D5" t="n">
-        <v>53.1319</v>
+        <v>222.59551</v>
       </c>
       <c r="E5" t="n">
-        <v>2.2038</v>
+        <v>120.78427</v>
       </c>
       <c r="F5" t="n">
-        <v>8549.479300000001</v>
+        <v>47913.33985</v>
       </c>
       <c r="G5" t="n">
-        <v>69.7711</v>
+        <v>224.23284</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8492</v>
+        <v>41.16032</v>
       </c>
       <c r="I5" t="n">
-        <v>1275.2811</v>
+        <v>943.72758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10958.04886</v>
+        <v>53688.00004</v>
       </c>
       <c r="C6" t="n">
-        <v>2716.9895</v>
+        <v>6007.28068</v>
       </c>
       <c r="D6" t="n">
-        <v>87.97868</v>
+        <v>223.45017</v>
       </c>
       <c r="E6" t="n">
-        <v>13.82285</v>
+        <v>125.35193</v>
       </c>
       <c r="F6" t="n">
-        <v>11122.53562</v>
+        <v>54195.92887</v>
       </c>
       <c r="G6" t="n">
-        <v>76.50808000000001</v>
+        <v>284.47866</v>
       </c>
       <c r="H6" t="n">
-        <v>11.08542</v>
+        <v>101.83715</v>
       </c>
       <c r="I6" t="n">
-        <v>1004.09735</v>
+        <v>960.88686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12459.04704</v>
+        <v>60357.39096</v>
       </c>
       <c r="C7" t="n">
-        <v>2663.99769</v>
+        <v>6895.18872</v>
       </c>
       <c r="D7" t="n">
-        <v>90.38104</v>
+        <v>272.66044</v>
       </c>
       <c r="E7" t="n">
-        <v>28.37577</v>
+        <v>182.22901</v>
       </c>
       <c r="F7" t="n">
-        <v>12633.18601</v>
+        <v>60946.43791</v>
       </c>
       <c r="G7" t="n">
-        <v>83.75793</v>
+        <v>316.38651</v>
       </c>
       <c r="H7" t="n">
-        <v>11.99436</v>
+        <v>106.24757</v>
       </c>
       <c r="I7" t="n">
-        <v>916.20744</v>
+        <v>1011.84848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14665.3105</v>
+        <v>66957.24161</v>
       </c>
       <c r="C8" t="n">
-        <v>3373.53443</v>
+        <v>7980.42878</v>
       </c>
       <c r="D8" t="n">
-        <v>103.51199</v>
+        <v>397.61726</v>
       </c>
       <c r="E8" t="n">
-        <v>27.55647</v>
+        <v>196.05491</v>
       </c>
       <c r="F8" t="n">
-        <v>14862.90732</v>
+        <v>67726.45039</v>
       </c>
       <c r="G8" t="n">
-        <v>94.08483</v>
+        <v>371.59152</v>
       </c>
       <c r="H8" t="n">
-        <v>18.32998</v>
+        <v>111.34622</v>
       </c>
       <c r="I8" t="n">
-        <v>931.87486</v>
+        <v>963.91782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17448.63645</v>
+        <v>73990.13632999999</v>
       </c>
       <c r="C9" t="n">
-        <v>2995.85014</v>
+        <v>8692.65868</v>
       </c>
       <c r="D9" t="n">
-        <v>115.72565</v>
+        <v>337.10681</v>
       </c>
       <c r="E9" t="n">
-        <v>40.03662</v>
+        <v>213.05559</v>
       </c>
       <c r="F9" t="n">
-        <v>17676.93171</v>
+        <v>74761.86724000001</v>
       </c>
       <c r="G9" t="n">
-        <v>112.56961</v>
+        <v>434.6241</v>
       </c>
       <c r="H9" t="n">
-        <v>23.57071</v>
+        <v>113.62449</v>
       </c>
       <c r="I9" t="n">
-        <v>898.54966</v>
+        <v>813.92434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20977.31126</v>
+        <v>79330.28140000001</v>
       </c>
       <c r="C10" t="n">
-        <v>3239.59683</v>
+        <v>10550.61723</v>
       </c>
       <c r="D10" t="n">
-        <v>137.41713</v>
+        <v>349.84875</v>
       </c>
       <c r="E10" t="n">
-        <v>49.23425</v>
+        <v>242.13578</v>
       </c>
       <c r="F10" t="n">
-        <v>21248.69925</v>
+        <v>80154.78904</v>
       </c>
       <c r="G10" t="n">
-        <v>133.97086</v>
+        <v>474.65889</v>
       </c>
       <c r="H10" t="n">
-        <v>27.50623</v>
+        <v>121.84283</v>
       </c>
       <c r="I10" t="n">
-        <v>905.61231</v>
+        <v>756.42015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24556.8638</v>
+        <v>83964.38503999999</v>
       </c>
       <c r="C11" t="n">
-        <v>3458.0363</v>
+        <v>11923.4085</v>
       </c>
       <c r="D11" t="n">
-        <v>152.8858</v>
+        <v>565.28414</v>
       </c>
       <c r="E11" t="n">
-        <v>70.3623</v>
+        <v>244.9458</v>
       </c>
       <c r="F11" t="n">
-        <v>24872.5952</v>
+        <v>85100.23762</v>
       </c>
       <c r="G11" t="n">
-        <v>162.8456</v>
+        <v>570.56844</v>
       </c>
       <c r="H11" t="n">
-        <v>30.8143</v>
+        <v>129.93123</v>
       </c>
       <c r="I11" t="n">
-        <v>938.5418</v>
+        <v>748.27901</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29891.65394</v>
+        <v>89361.54785</v>
       </c>
       <c r="C12" t="n">
-        <v>4038.0427</v>
+        <v>12183.58426</v>
       </c>
       <c r="D12" t="n">
-        <v>192.95916</v>
+        <v>552.62136</v>
       </c>
       <c r="E12" t="n">
-        <v>85.74167</v>
+        <v>298.7175</v>
       </c>
       <c r="F12" t="n">
-        <v>30264.78871</v>
+        <v>90528.51068000001</v>
       </c>
       <c r="G12" t="n">
-        <v>180.17561</v>
+        <v>614.34147</v>
       </c>
       <c r="H12" t="n">
-        <v>65.73938</v>
+        <v>144.08934</v>
       </c>
       <c r="I12" t="n">
-        <v>1052.88797</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>35769.42256</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4643.16064</v>
-      </c>
-      <c r="D13" t="n">
-        <v>182.60883</v>
-      </c>
-      <c r="E13" t="n">
-        <v>101.80525</v>
-      </c>
-      <c r="F13" t="n">
-        <v>36123.45204</v>
-      </c>
-      <c r="G13" t="n">
-        <v>171.42065</v>
-      </c>
-      <c r="H13" t="n">
-        <v>40.28096</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1114.55154</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>47466.5115</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5230.46853</v>
-      </c>
-      <c r="D14" t="n">
-        <v>222.59551</v>
-      </c>
-      <c r="E14" t="n">
-        <v>120.78427</v>
-      </c>
-      <c r="F14" t="n">
-        <v>47913.33985</v>
-      </c>
-      <c r="G14" t="n">
-        <v>224.23284</v>
-      </c>
-      <c r="H14" t="n">
-        <v>41.16032</v>
-      </c>
-      <c r="I14" t="n">
-        <v>943.72758</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>53688.00004</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6007.28068</v>
-      </c>
-      <c r="D15" t="n">
-        <v>223.45017</v>
-      </c>
-      <c r="E15" t="n">
-        <v>125.35193</v>
-      </c>
-      <c r="F15" t="n">
-        <v>54195.92887</v>
-      </c>
-      <c r="G15" t="n">
-        <v>284.47866</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.83715</v>
-      </c>
-      <c r="I15" t="n">
-        <v>960.88686</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>60357.39096</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6895.18872</v>
-      </c>
-      <c r="D16" t="n">
-        <v>272.66044</v>
-      </c>
-      <c r="E16" t="n">
-        <v>182.22901</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60946.43791</v>
-      </c>
-      <c r="G16" t="n">
-        <v>316.38651</v>
-      </c>
-      <c r="H16" t="n">
-        <v>106.24757</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1011.84848</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>66957.24161</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7980.42878</v>
-      </c>
-      <c r="D17" t="n">
-        <v>397.61726</v>
-      </c>
-      <c r="E17" t="n">
-        <v>196.05491</v>
-      </c>
-      <c r="F17" t="n">
-        <v>67726.45039</v>
-      </c>
-      <c r="G17" t="n">
-        <v>371.59152</v>
-      </c>
-      <c r="H17" t="n">
-        <v>111.34622</v>
-      </c>
-      <c r="I17" t="n">
-        <v>963.91782</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>73990.13632999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8692.65868</v>
-      </c>
-      <c r="D18" t="n">
-        <v>337.10681</v>
-      </c>
-      <c r="E18" t="n">
-        <v>213.05559</v>
-      </c>
-      <c r="F18" t="n">
-        <v>74761.86724000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>434.6241</v>
-      </c>
-      <c r="H18" t="n">
-        <v>113.62449</v>
-      </c>
-      <c r="I18" t="n">
-        <v>813.92434</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>79330.28140000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>10550.61723</v>
-      </c>
-      <c r="D19" t="n">
-        <v>349.84875</v>
-      </c>
-      <c r="E19" t="n">
-        <v>242.13578</v>
-      </c>
-      <c r="F19" t="n">
-        <v>80154.78904</v>
-      </c>
-      <c r="G19" t="n">
-        <v>474.65889</v>
-      </c>
-      <c r="H19" t="n">
-        <v>121.84283</v>
-      </c>
-      <c r="I19" t="n">
-        <v>756.42015</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>83964.38503999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11923.4085</v>
-      </c>
-      <c r="D20" t="n">
-        <v>565.28414</v>
-      </c>
-      <c r="E20" t="n">
-        <v>244.9458</v>
-      </c>
-      <c r="F20" t="n">
-        <v>85100.23762</v>
-      </c>
-      <c r="G20" t="n">
-        <v>570.56844</v>
-      </c>
-      <c r="H20" t="n">
-        <v>129.93123</v>
-      </c>
-      <c r="I20" t="n">
-        <v>748.27901</v>
+        <v>671.66106</v>
       </c>
     </row>
   </sheetData>
